--- a/selected_candidates.xlsx
+++ b/selected_candidates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>bert_score</t>
   </si>
@@ -40,16 +40,29 @@
     <t>Rohan Hota</t>
   </si>
   <si>
+    <t>Rohan Hota  
+B.Tech</t>
+  </si>
+  <si>
+    <t>8249496957</t>
+  </si>
+  <si>
     <t>+918249496957</t>
   </si>
   <si>
-    <t>8249496957</t>
-  </si>
-  <si>
-    <t>THIS_ONE.pdf</t>
+    <t>+91 -8249496957</t>
+  </si>
+  <si>
+    <t>duplicate_no_photo.pdf</t>
   </si>
   <si>
     <t>duplicate_with_photo.pdf</t>
+  </si>
+  <si>
+    <t>FINAL_WITH_HR.pdf</t>
+  </si>
+  <si>
+    <t>giet resume.pdf</t>
   </si>
 </sst>
 </file>
@@ -407,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +448,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -444,19 +457,19 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <f>HYPERLINK("G:\8th sem project original\uploaded_resumes\THIS_ONE.pdf", "Open Resume")</f>
+        <f>HYPERLINK("G:\8th sem project original\uploaded_resumes\duplicate_no_photo.pdf", "Open Resume")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -468,10 +481,52 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <f>HYPERLINK("G:\8th sem project original\uploaded_resumes\duplicate_with_photo.pdf", "Open Resume")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>0.29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <f>HYPERLINK("G:\8th sem project original\uploaded_resumes\FINAL_WITH_HR.pdf", "Open Resume")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>0.29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f>HYPERLINK("G:\8th sem project original\uploaded_resumes\giet resume.pdf", "Open Resume")</f>
         <v>0</v>
       </c>
     </row>
